--- a/Calling_Trees/Calling Tree - Sep-25.xlsx
+++ b/Calling_Trees/Calling Tree - Sep-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xclusivetrading-my.sharepoint.com/personal/m_mahee_xclusivetradinginc_com/Documents/Desktop/Python/Calling Tree Dashboard/CallingTree_Dashboard/Calling_Trees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="761" documentId="13_ncr:1_{443089ED-E8E2-44A4-B672-0F8AB15D6A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D4CF1A6-76F5-40C3-BD22-A68703AC4979}"/>
+  <xr:revisionPtr revIDLastSave="764" documentId="13_ncr:1_{443089ED-E8E2-44A4-B672-0F8AB15D6A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03B467CB-D440-4348-AC7C-D15687DDB41F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5143,6 +5143,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5468,8 +5472,8 @@
   <dimension ref="A1:X272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D218" sqref="D218:E218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24466,30 +24470,30 @@
   <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U260">
+    <cfRule type="duplicateValues" dxfId="10" priority="107"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U116:U119">
-    <cfRule type="duplicateValues" dxfId="10" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U173:U180">
-    <cfRule type="duplicateValues" dxfId="8" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U173:U198">
-    <cfRule type="duplicateValues" dxfId="7" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U199:U210 U223:U236">
-    <cfRule type="duplicateValues" dxfId="6" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U237:U246 U248:U260">
-    <cfRule type="duplicateValues" dxfId="4" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U247">
-    <cfRule type="duplicateValues" dxfId="2" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U260">
-    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="102"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="V138" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
